--- a/data/Erick GutiérrezT3-2024.xlsx
+++ b/data/Erick GutiérrezT3-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>81.13994701999999</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -1450,6 +1452,7 @@
         <v>3.57e-06</v>
       </c>
     </row>
+    <row r="60"/>
     <row r="61">
       <c r="D61" s="6" t="inlineStr">
         <is>
@@ -1475,7 +1478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1488,6 +1491,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1495,6 +1500,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1502,6 +1508,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1832,6 +1839,7 @@
         <v>0.00053084</v>
       </c>
     </row>
+    <row r="33"/>
     <row r="34">
       <c r="C34" s="6" t="inlineStr">
         <is>
@@ -1857,7 +1865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1870,6 +1878,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1877,6 +1887,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1884,6 +1895,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -2019,6 +2031,7 @@
         <v>6.119e-05</v>
       </c>
     </row>
+    <row r="18"/>
     <row r="19">
       <c r="C19" s="6" t="inlineStr">
         <is>
